--- a/Input_Data.xlsx
+++ b/Input_Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox\OO\VERSÃO_19\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox\OO\SLP_UTGCAB_v20\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18D25861-FC11-4633-B955-0F4E30D91C1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C893152-FCDD-45E1-8761-DA037734B4AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="682" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1350,7 +1350,7 @@
   <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1451,7 +1451,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="1">
-        <v>20</v>
+        <v>5400000</v>
       </c>
       <c r="Q7" s="1"/>
     </row>
@@ -1463,7 +1463,7 @@
         <v>0</v>
       </c>
       <c r="C8" s="1">
-        <v>20</v>
+        <v>5400000</v>
       </c>
       <c r="Q8" s="1"/>
     </row>

--- a/Input_Data.xlsx
+++ b/Input_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox\OO\SLP_UTGCAB_v20\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C893152-FCDD-45E1-8761-DA037734B4AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{540294FC-4E81-4ADB-86DB-F6CD9D97A132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="682" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="682" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Condicoes_coletores" sheetId="7" r:id="rId1"/>
@@ -697,7 +697,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1048,7 +1048,7 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1087,7 +1087,7 @@
         <v>62</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1095,7 +1095,7 @@
         <v>63</v>
       </c>
       <c r="B5">
-        <v>-25</v>
+        <v>-30</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1103,7 +1103,7 @@
         <v>64</v>
       </c>
       <c r="B6">
-        <v>-30.2</v>
+        <v>-30</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1120,7 +1120,7 @@
         <v>66</v>
       </c>
       <c r="B8">
-        <v>0.83169999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="C8" s="1"/>
     </row>
@@ -1138,7 +1138,7 @@
         <v>68</v>
       </c>
       <c r="B10">
-        <v>0.83169999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="C10" s="1"/>
     </row>
@@ -1156,7 +1156,7 @@
         <v>70</v>
       </c>
       <c r="B12">
-        <v>0.83169999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="C12" s="1"/>
     </row>
@@ -1181,7 +1181,7 @@
         <v>73</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -1269,10 +1269,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BC88EAA-795B-4C6D-AD64-61F1FE1FE3BE}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1281,7 +1281,7 @@
     <col min="2" max="2" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>83</v>
       </c>
@@ -1289,47 +1289,62 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>84</v>
       </c>
       <c r="B2" s="2">
-        <v>4.2194000000000003</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>14.2194</v>
+      </c>
+      <c r="E2" s="2">
+        <v>14.2194</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>85</v>
       </c>
       <c r="B3" s="2">
-        <v>5.0198</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>15.0198</v>
+      </c>
+      <c r="E3" s="2">
+        <v>15.0198</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>86</v>
       </c>
       <c r="B4" s="2">
         <v>5.7736999999999998</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E4" s="2">
+        <v>5.7736999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>87</v>
       </c>
       <c r="B5" s="2">
         <v>8.5498999999999992</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E5" s="2">
+        <v>8.5498999999999992</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>88</v>
       </c>
       <c r="B6" s="2">
         <v>13.071999999999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E6" s="2">
+        <v>13.071999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>89</v>
       </c>
@@ -1337,7 +1352,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" s="4"/>
     </row>
   </sheetData>
@@ -1349,8 +1364,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CB6D795-C4EF-4F8F-BBCD-5F883A76173D}">
   <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1380,7 +1395,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="1">
-        <v>2000000</v>
+        <v>6000000</v>
       </c>
       <c r="F2" s="1">
         <v>2000000</v>
@@ -1394,7 +1409,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="C3" s="1">
-        <v>8000000</v>
+        <v>4000000</v>
       </c>
       <c r="F3" s="1">
         <v>8000000</v>
@@ -1422,7 +1437,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="C5" s="6">
-        <v>3000000</v>
+        <v>2000000</v>
       </c>
       <c r="F5" s="6">
         <v>3000000</v>
@@ -1433,10 +1448,11 @@
         <v>28</v>
       </c>
       <c r="B6" s="1">
-        <v>8100000</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="C6" s="1">
-        <v>16200000</v>
+        <f>SUM(C7:C9)</f>
+        <v>12900000</v>
       </c>
       <c r="D6" s="1"/>
       <c r="F6" s="1">
@@ -1451,7 +1467,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="1">
-        <v>5400000</v>
+        <v>4500000</v>
       </c>
       <c r="Q7" s="1"/>
     </row>
@@ -1463,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="C8" s="1">
-        <v>5400000</v>
+        <v>4100000</v>
       </c>
       <c r="Q8" s="1"/>
     </row>
@@ -1475,9 +1491,15 @@
         <v>0</v>
       </c>
       <c r="C9" s="1">
-        <v>5400000</v>
+        <v>4300000</v>
       </c>
       <c r="Q9" s="1"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C13" s="1">
+        <f>SUM(C2:C6)</f>
+        <v>30300000</v>
+      </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C14" s="1"/>
